--- a/Project Report/Gantt Chart.xlsx
+++ b/Project Report/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{337841CC-56C6-489B-B606-C2E9925771CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6350AA1-DF39-418A-95F7-1DEE480A7FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Project Start:</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Menyiapkan Deliverables Dokumen, Video, dan Code Github</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis</t>
   </si>
 </sst>
 </file>
@@ -535,6 +538,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -543,9 +549,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1096,11 +1099,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1143,24 +1146,24 @@
         <v>14</v>
       </c>
       <c r="B3" s="27"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37">
         <f>DATE(2022, 7, 3)</f>
         <v>44745</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -1599,7 +1602,7 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
-        <f t="shared" ref="H8:H12" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H13" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
       <c r="I8" s="18"/>
@@ -1763,7 +1766,7 @@
     <row r="11" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="30" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>18</v>
@@ -1772,18 +1775,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="28">
-        <f>E10+5</f>
-        <v>44755</v>
+        <f>E10+4</f>
+        <v>44754</v>
       </c>
       <c r="F11" s="28">
-        <f>E11+5</f>
-        <v>44760</v>
+        <f>E11+4</f>
+        <v>44758</v>
       </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="16">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
+      <c r="H11" s="16"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1800,7 +1800,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="19"/>
+      <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
@@ -1823,7 +1823,7 @@
     <row r="12" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>18</v>
@@ -1832,17 +1832,17 @@
         <v>0</v>
       </c>
       <c r="E12" s="28">
-        <f>E11+1</f>
-        <v>44756</v>
+        <f>E10+5</f>
+        <v>44755</v>
       </c>
       <c r="F12" s="28">
-        <f>E12+4</f>
-        <v>44760</v>
+        <f>E12</f>
+        <v>44755</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1860,7 +1860,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
+      <c r="Y12" s="19"/>
       <c r="Z12" s="18"/>
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
@@ -1883,7 +1883,7 @@
     <row r="13" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>18</v>
@@ -1892,15 +1892,18 @@
         <v>0</v>
       </c>
       <c r="E13" s="28">
-        <f>E12+2</f>
-        <v>44758</v>
+        <f>E12+1</f>
+        <v>44756</v>
       </c>
       <c r="F13" s="28">
         <f>E13+4</f>
-        <v>44762</v>
+        <v>44760</v>
       </c>
       <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1939,8 +1942,8 @@
     </row>
     <row r="14" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
-      <c r="B14" s="37" t="s">
-        <v>25</v>
+      <c r="B14" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>18</v>
@@ -1949,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="28">
-        <f>E13</f>
+        <f>E13+2</f>
         <v>44758</v>
       </c>
       <c r="F14" s="28">
@@ -1996,8 +1999,8 @@
     </row>
     <row r="15" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="37" t="s">
-        <v>26</v>
+      <c r="B15" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>18</v>
@@ -2006,11 +2009,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="28">
-        <f>F14</f>
-        <v>44762</v>
+        <f>E14</f>
+        <v>44758</v>
       </c>
       <c r="F15" s="28">
-        <f>E15</f>
+        <f>E15+4</f>
         <v>44762</v>
       </c>
       <c r="G15" s="16"/>
@@ -2053,8 +2056,8 @@
     </row>
     <row r="16" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
-      <c r="B16" s="37" t="s">
-        <v>27</v>
+      <c r="B16" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>18</v>
@@ -2067,8 +2070,8 @@
         <v>44762</v>
       </c>
       <c r="F16" s="28">
-        <f>F15+4</f>
-        <v>44766</v>
+        <f>E16</f>
+        <v>44762</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2110,8 +2113,8 @@
     </row>
     <row r="17" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="37" t="s">
-        <v>28</v>
+      <c r="B17" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>18</v>
@@ -2121,10 +2124,10 @@
       </c>
       <c r="E17" s="28">
         <f>F16</f>
-        <v>44766</v>
+        <v>44762</v>
       </c>
       <c r="F17" s="28">
-        <f>E17</f>
+        <f>F16+4</f>
         <v>44766</v>
       </c>
       <c r="G17" s="16"/>
@@ -2167,8 +2170,8 @@
     </row>
     <row r="18" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
-      <c r="B18" s="37" t="s">
-        <v>29</v>
+      <c r="B18" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>18</v>
@@ -2177,12 +2180,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="28">
-        <f>F15+2</f>
-        <v>44764</v>
+        <f>F17</f>
+        <v>44766</v>
       </c>
       <c r="F18" s="28">
-        <f>E18+4</f>
-        <v>44768</v>
+        <f>E18</f>
+        <v>44766</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -2222,28 +2225,85 @@
       <c r="AP18" s="18"/>
       <c r="AQ18" s="18"/>
     </row>
-    <row r="19" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="6"/>
+    <row r="19" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <f>F16+2</f>
+        <v>44764</v>
+      </c>
+      <c r="F19" s="28">
+        <f>E19+4</f>
+        <v>44768</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
     </row>
     <row r="20" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
-      <c r="F20" s="23"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D12 D14:D18">
+  <conditionalFormatting sqref="D7:D13 D15:D19">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2257,12 +2317,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AP18">
+  <conditionalFormatting sqref="I5:AP19">
     <cfRule type="expression" dxfId="5" priority="34">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AP18">
+  <conditionalFormatting sqref="I7:AP19">
     <cfRule type="expression" dxfId="4" priority="28">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -2270,7 +2330,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2284,12 +2344,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ5:AQ18">
+  <conditionalFormatting sqref="AQ5:AQ19">
     <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7:AQ18">
+  <conditionalFormatting sqref="AQ7:AQ19">
     <cfRule type="expression" dxfId="1" priority="39">
       <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
     </cfRule>
@@ -2309,7 +2369,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F16" formula="1"/>
+    <ignoredError sqref="F17 F12" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2327,7 +2387,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D12 D14:D18</xm:sqref>
+          <xm:sqref>D7:D13 D15:D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{538CE82B-9F1F-4D70-B5D2-180E6591A00D}">
@@ -2342,7 +2402,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D13</xm:sqref>
+          <xm:sqref>D14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Project Report/Gantt Chart.xlsx
+++ b/Project Report/Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6350AA1-DF39-418A-95F7-1DEE480A7FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780F41B-0705-4A85-A2CC-1F1A162C84A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Project Start:</t>
   </si>
@@ -109,9 +109,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>Studi Literatur</t>
-  </si>
-  <si>
     <t>Proposal</t>
   </si>
   <si>
@@ -139,10 +136,43 @@
     <t>Progress Report Meeting #3</t>
   </si>
   <si>
-    <t>Menyiapkan Deliverables Dokumen, Video, dan Code Github</t>
-  </si>
-  <si>
-    <t>Exploratory Data Analysis</t>
+    <t>Tahap Persiapan</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Studi Literatur, Knowledge and Gap Identification</t>
+  </si>
+  <si>
+    <t>Tahap Data Engineering &amp; Analysis</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis (EDA)</t>
+  </si>
+  <si>
+    <t>Adam Aji Nugroho dan Rindang Muharza Viawan</t>
+  </si>
+  <si>
+    <t>Tahap Data Modeling &amp; Evaluation</t>
+  </si>
+  <si>
+    <t>Aldhi Prambudi dan Gradytama Elkana</t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>Menyiapkan Dokumen</t>
+  </si>
+  <si>
+    <t>Menyiapkan Video</t>
+  </si>
+  <si>
+    <t>Menyiapkan  Code Github</t>
+  </si>
+  <si>
+    <t>Closure</t>
   </si>
 </sst>
 </file>
@@ -156,7 +186,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +297,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +337,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -420,6 +464,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -451,7 +639,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -465,9 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,6 +726,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -550,13 +744,61 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,7 +817,187 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -732,15 +1154,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -811,10 +1233,10 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFC0C0C0"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
-      <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
@@ -1099,1212 +1521,1556 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ22"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" defaultGridColor="0" topLeftCell="B1" colorId="55" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="7" max="7" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="63" width="2.5703125" customWidth="1"/>
+    <col min="68" max="69" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="20"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="25"/>
+      <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39">
         <f>DATE(2022, 7, 3)</f>
         <v>44745</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="7">
+      <c r="D4" s="38"/>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="38">
-        <f>I5</f>
+      <c r="H4" s="34">
+        <f>H5</f>
         <v>44739</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="38">
-        <f>P5</f>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="34">
+        <f>O5</f>
         <v>44746</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="38">
-        <f>W5</f>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="34">
+        <f>V5</f>
         <v>44753</v>
       </c>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="38">
-        <f>AD5</f>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="34">
+        <f>AC5</f>
         <v>44760</v>
       </c>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="38">
-        <f>AK5</f>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="34">
+        <f>AJ5</f>
         <v>44767</v>
       </c>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="40"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="36"/>
     </row>
-    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="I5" s="11">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="H5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-2)</f>
         <v>44739</v>
       </c>
-      <c r="J5" s="10">
-        <f>I5+1</f>
+      <c r="I5" s="9">
+        <f>H5+1</f>
         <v>44740</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:AQ5" si="0">J5+1</f>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:AP5" si="0">I5+1</f>
         <v>44741</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>44742</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>44743</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>44744</v>
       </c>
-      <c r="O5" s="12">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>44745</v>
       </c>
-      <c r="P5" s="11">
+      <c r="O5" s="10">
+        <f>N5+1</f>
+        <v>44746</v>
+      </c>
+      <c r="P5" s="9">
         <f>O5+1</f>
-        <v>44746</v>
-      </c>
-      <c r="Q5" s="10">
-        <f>P5+1</f>
         <v>44747</v>
       </c>
-      <c r="R5" s="10">
+      <c r="Q5" s="9">
         <f t="shared" si="0"/>
         <v>44748</v>
       </c>
-      <c r="S5" s="10">
+      <c r="R5" s="9">
         <f t="shared" si="0"/>
         <v>44749</v>
       </c>
-      <c r="T5" s="10">
+      <c r="S5" s="9">
         <f t="shared" si="0"/>
         <v>44750</v>
       </c>
-      <c r="U5" s="10">
+      <c r="T5" s="9">
         <f t="shared" si="0"/>
         <v>44751</v>
       </c>
-      <c r="V5" s="12">
+      <c r="U5" s="11">
         <f t="shared" si="0"/>
         <v>44752</v>
       </c>
-      <c r="W5" s="11">
+      <c r="V5" s="10">
+        <f>U5+1</f>
+        <v>44753</v>
+      </c>
+      <c r="W5" s="9">
         <f>V5+1</f>
-        <v>44753</v>
-      </c>
-      <c r="X5" s="10">
-        <f>W5+1</f>
         <v>44754</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="X5" s="9">
         <f t="shared" si="0"/>
         <v>44755</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Y5" s="9">
         <f t="shared" si="0"/>
         <v>44756</v>
       </c>
-      <c r="AA5" s="10">
-        <f t="shared" si="0"/>
+      <c r="Z5" s="49">
+        <f>Y5+1</f>
         <v>44757</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AA5" s="49">
         <f t="shared" si="0"/>
         <v>44758</v>
       </c>
-      <c r="AC5" s="12">
-        <f t="shared" si="0"/>
+      <c r="AB5" s="11">
+        <f>AA5+1</f>
         <v>44759</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AC5" s="10">
+        <f>AB5+1</f>
+        <v>44760</v>
+      </c>
+      <c r="AD5" s="9">
         <f>AC5+1</f>
-        <v>44760</v>
-      </c>
-      <c r="AE5" s="10">
-        <f>AD5+1</f>
         <v>44761</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AE5" s="9">
         <f t="shared" si="0"/>
         <v>44762</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AF5" s="9">
         <f t="shared" si="0"/>
         <v>44763</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AG5" s="9">
         <f t="shared" si="0"/>
         <v>44764</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AH5" s="9">
         <f t="shared" si="0"/>
         <v>44765</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AI5" s="11">
         <f t="shared" si="0"/>
         <v>44766</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AJ5" s="10">
+        <f>AI5+1</f>
+        <v>44767</v>
+      </c>
+      <c r="AK5" s="9">
         <f>AJ5+1</f>
-        <v>44767</v>
-      </c>
-      <c r="AL5" s="10">
-        <f>AK5+1</f>
         <v>44768</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AL5" s="9">
         <f t="shared" si="0"/>
         <v>44769</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AM5" s="9">
         <f t="shared" si="0"/>
         <v>44770</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AN5" s="9">
         <f t="shared" si="0"/>
         <v>44771</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AO5" s="9">
         <f t="shared" si="0"/>
         <v>44772</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AP5" s="11">
         <f t="shared" si="0"/>
         <v>44773</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" si="1">LEFT(TEXT(I5,"ddd"),1)</f>
+      <c r="H6" s="12" t="str">
+        <f t="shared" ref="H6" si="1">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AQ6" si="2">LEFT(TEXT(J5,"ddd"),1)</f>
+      <c r="I6" s="12" t="str">
+        <f t="shared" ref="I6:AP6" si="2">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="K6" s="13" t="str">
+      <c r="J6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="K6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="L6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="M6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="N6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="O6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="P6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="Q6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="R6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="S6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="T6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="U6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="V6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="W6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="X6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="Z6" s="50" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AA6" s="52" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AB6" s="47" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AC6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AD6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AE6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AF6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AG6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AH6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AI6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AJ6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AK6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AM6" s="13" t="str">
+      <c r="AL6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="13" t="str">
+      <c r="AM6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AN6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AO6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="13" t="str">
+      <c r="AP6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:42" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="E7"/>
-      <c r="H7" t="str">
+      <c r="G7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
     </row>
-    <row r="8" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="15" t="str">
+        <f t="shared" ref="G8" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="57"/>
+    </row>
+    <row r="9" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="B9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E9" s="27">
         <f>Project_Start</f>
         <v>44745</v>
       </c>
-      <c r="F8" s="28">
-        <f>E8</f>
+      <c r="F9" s="27">
+        <f>E9</f>
         <v>44745</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
-        <f t="shared" ref="H8:H13" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="G9" s="15">
+        <f t="shared" ref="G9:G16" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
     </row>
-    <row r="9" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="10" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="B10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="28">
-        <f>F8+1</f>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <f>F9+1</f>
         <v>44746</v>
       </c>
-      <c r="F9" s="28">
-        <f>E9+8</f>
+      <c r="F10" s="27">
+        <f>E10+8</f>
         <v>44754</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f t="shared" si="3"/>
+      <c r="G10" s="15">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-    </row>
-    <row r="10" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="28">
-        <f>E9+4</f>
-        <v>44750</v>
-      </c>
-      <c r="F10" s="28">
-        <f>E10+8</f>
-        <v>44758</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
     </row>
-    <row r="11" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="29" t="s">
+    <row r="11" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27">
+        <f>E10+4</f>
+        <v>44750</v>
+      </c>
+      <c r="F11" s="27">
+        <f>E11+8</f>
+        <v>44758</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+    </row>
+    <row r="12" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="57"/>
+    </row>
+    <row r="13" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27">
+        <f>E11+4</f>
+        <v>44754</v>
+      </c>
+      <c r="F13" s="27">
+        <f>E13+4</f>
+        <v>44758</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+    </row>
+    <row r="14" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="27">
+        <f>E13+2</f>
+        <v>44756</v>
+      </c>
+      <c r="F14" s="27">
+        <f>E14+4</f>
+        <v>44760</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+    </row>
+    <row r="15" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27">
+        <f>E14+2</f>
+        <v>44758</v>
+      </c>
+      <c r="F15" s="27">
+        <f>E15</f>
+        <v>44758</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+    </row>
+    <row r="16" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="57"/>
+    </row>
+    <row r="17" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E11" s="28">
-        <f>E10+4</f>
-        <v>44754</v>
-      </c>
-      <c r="F11" s="28">
-        <f>E11+4</f>
+      <c r="E17" s="27">
+        <f>E15</f>
         <v>44758</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
+      <c r="F17" s="27">
+        <f>E17+4</f>
+        <v>44762</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
     </row>
-    <row r="12" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="29" t="s">
+    <row r="18" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <f>E17</f>
+        <v>44758</v>
+      </c>
+      <c r="F18" s="27">
+        <f>E18+4</f>
+        <v>44762</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+    </row>
+    <row r="19" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D19" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="28">
-        <f>E10+5</f>
-        <v>44755</v>
-      </c>
-      <c r="F12" s="28">
-        <f>E12</f>
-        <v>44755</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
+      <c r="E19" s="27">
+        <f>F18</f>
+        <v>44762</v>
+      </c>
+      <c r="F19" s="27">
+        <f>E19</f>
+        <v>44762</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
     </row>
-    <row r="13" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="29" t="s">
+    <row r="20" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <f>F19</f>
+        <v>44762</v>
+      </c>
+      <c r="F20" s="27">
+        <f>F19+4</f>
+        <v>44766</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+    </row>
+    <row r="21" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D21" s="16">
         <v>0</v>
       </c>
-      <c r="E13" s="28">
-        <f>E12+1</f>
-        <v>44756</v>
-      </c>
-      <c r="F13" s="28">
-        <f>E13+4</f>
-        <v>44760</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
+      <c r="E21" s="27">
+        <f>F20</f>
+        <v>44766</v>
+      </c>
+      <c r="F21" s="27">
+        <f>E21</f>
+        <v>44766</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
     </row>
-    <row r="14" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="29" t="s">
+    <row r="22" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="15" t="str">
+        <f t="shared" ref="G22" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="57"/>
+    </row>
+    <row r="23" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D23" s="16">
         <v>0</v>
       </c>
-      <c r="E14" s="28">
-        <f>E13+2</f>
-        <v>44758</v>
-      </c>
-      <c r="F14" s="28">
-        <f>E14+4</f>
-        <v>44762</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
+      <c r="E23" s="27">
+        <f>F19+2</f>
+        <v>44764</v>
+      </c>
+      <c r="F23" s="27">
+        <f>E23+3</f>
+        <v>44767</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
     </row>
-    <row r="15" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="29" t="s">
+    <row r="24" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D24" s="16">
         <v>0</v>
       </c>
-      <c r="E15" s="28">
-        <f>E14</f>
-        <v>44758</v>
-      </c>
-      <c r="F15" s="28">
-        <f>E15+4</f>
-        <v>44762</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
+      <c r="E24" s="27">
+        <f>E23</f>
+        <v>44764</v>
+      </c>
+      <c r="F24" s="27">
+        <f>E24+3</f>
+        <v>44767</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
     </row>
-    <row r="16" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="29" t="s">
+    <row r="25" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D25" s="16">
         <v>0</v>
       </c>
-      <c r="E16" s="28">
-        <f>F15</f>
-        <v>44762</v>
-      </c>
-      <c r="F16" s="28">
-        <f>E16</f>
-        <v>44762</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
+      <c r="E25" s="27">
+        <f>E23</f>
+        <v>44764</v>
+      </c>
+      <c r="F25" s="27">
+        <f>E25+3</f>
+        <v>44767</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
     </row>
-    <row r="17" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="29" t="s">
+    <row r="26" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D26" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="28">
-        <f>F16</f>
-        <v>44762</v>
-      </c>
-      <c r="F17" s="28">
-        <f>F16+4</f>
-        <v>44766</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
+      <c r="E26" s="27">
+        <f>E25+4</f>
+        <v>44768</v>
+      </c>
+      <c r="F26" s="27">
+        <f>E26</f>
+        <v>44768</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
     </row>
-    <row r="18" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="28">
-        <f>F17</f>
-        <v>44766</v>
-      </c>
-      <c r="F18" s="28">
-        <f>E18</f>
-        <v>44766</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
+    <row r="28" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+      <c r="F28" s="22"/>
     </row>
-    <row r="19" spans="1:43" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="28">
-        <f>F16+2</f>
-        <v>44764</v>
-      </c>
-      <c r="F19" s="28">
-        <f>E19+4</f>
-        <v>44768</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-    </row>
-    <row r="20" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="15"/>
+    <row r="29" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
+  <mergeCells count="12">
+    <mergeCell ref="H22:AP22"/>
+    <mergeCell ref="H8:AP8"/>
+    <mergeCell ref="H12:AP12"/>
+    <mergeCell ref="H16:AP16"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D13 D15:D19">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="D18:D21 D7 D9:D11 D13 D15 D23:D26">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2317,21 +3083,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AP19">
-    <cfRule type="expression" dxfId="5" priority="34">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+  <conditionalFormatting sqref="H5:AO7 H9:AO11 H13:AO15 H17:AO21 H23:AO25">
+    <cfRule type="expression" dxfId="23" priority="59">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AP19">
-    <cfRule type="expression" dxfId="4" priority="28">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+  <conditionalFormatting sqref="H7:AO7 H9:AO11 H13:AO15 H17:AO21 H23:AO25">
+    <cfRule type="expression" dxfId="22" priority="53">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="29" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    <cfRule type="expression" dxfId="21" priority="54" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2344,17 +3110,165 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ5:AQ19">
-    <cfRule type="expression" dxfId="2" priority="36">
-      <formula>AND(TODAY()&gt;=AQ$5,TODAY()&lt;#REF!)</formula>
+  <conditionalFormatting sqref="AP5:AP7 AP9:AP11 AP13:AP15 AP17:AP21 AP23:AP25">
+    <cfRule type="expression" dxfId="20" priority="61">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7:AQ19">
-    <cfRule type="expression" dxfId="1" priority="39">
-      <formula>AND(task_start&lt;=AQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$5)</formula>
+  <conditionalFormatting sqref="AP7 AP9:AP11 AP13:AP15 AP17:AP21 AP23:AP25">
+    <cfRule type="expression" dxfId="19" priority="64">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="40" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AQ$5,task_start&lt;#REF!)</formula>
+    <cfRule type="expression" dxfId="18" priority="65" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AP$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F5A9AE1-620E-40E2-BFB7-5CC14C39FF3F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="16" priority="23">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7525EA72-5569-417D-9C55-9135FEF68752}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{51928372-2989-4C46-9DCB-26A2A80F2748}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A6DB323-18F0-4652-9EB3-EB4E0F8D618A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2E39E76C-30B0-4B8F-B4E3-63FD16B5F90B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:AO26">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:AO26">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2369,7 +3283,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F17 F12" formula="1"/>
+    <ignoredError sqref="F20 F15" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2387,7 +3301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D13 D15:D19</xm:sqref>
+          <xm:sqref>D18:D21 D7 D9:D11 D13 D15 D23:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{538CE82B-9F1F-4D70-B5D2-180E6591A00D}">
@@ -2402,7 +3316,82 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>D17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F5A9AE1-620E-40E2-BFB7-5CC14C39FF3F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7525EA72-5569-417D-9C55-9135FEF68752}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{51928372-2989-4C46-9DCB-26A2A80F2748}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A6DB323-18F0-4652-9EB3-EB4E0F8D618A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2E39E76C-30B0-4B8F-B4E3-63FD16B5F90B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Project Report/Gantt Chart.xlsx
+++ b/Project Report/Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780F41B-0705-4A85-A2CC-1F1A162C84A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04696EC7-0D2F-43B8-A88C-E56CF11CCD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Project Start:</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Tahap Persiapan</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Studi Literatur, Knowledge and Gap Identification</t>
@@ -726,6 +723,63 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,60 +789,6 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,9 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1524,8 +1521,8 @@
   <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" defaultGridColor="0" topLeftCell="B1" colorId="55" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:AP26"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1567,77 +1564,77 @@
         <v>14</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52">
         <f>DATE(2022, 7, 3)</f>
         <v>44745</v>
       </c>
-      <c r="F3" s="39"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="53">
         <f>H5</f>
         <v>44739</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="34">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="53">
         <f>O5</f>
         <v>44746</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="34">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="53">
         <f>V5</f>
         <v>44753</v>
       </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="34">
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="53">
         <f>AC5</f>
         <v>44760</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="34">
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="53">
         <f>AJ5</f>
         <v>44767</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="36"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -1720,11 +1717,11 @@
         <f t="shared" si="0"/>
         <v>44756</v>
       </c>
-      <c r="Z5" s="49">
+      <c r="Z5" s="43">
         <f>Y5+1</f>
         <v>44757</v>
       </c>
-      <c r="AA5" s="49">
+      <c r="AA5" s="43">
         <f t="shared" si="0"/>
         <v>44758</v>
       </c>
@@ -1883,15 +1880,15 @@
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="Z6" s="50" t="str">
+      <c r="Z6" s="44" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AA6" s="52" t="str">
+      <c r="AA6" s="46" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AB6" s="47" t="str">
+      <c r="AB6" s="41" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
@@ -1980,9 +1977,9 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="46"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="40"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
@@ -1999,52 +1996,52 @@
       <c r="AP7" s="17"/>
     </row>
     <row r="8" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="15" t="str">
         <f t="shared" ref="G8" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="57"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="58"/>
     </row>
     <row r="9" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -2089,9 +2086,9 @@
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="48"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="42"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="17"/>
@@ -2112,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>18</v>
@@ -2150,10 +2147,10 @@
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="46"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="40"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="17"/>
       <c r="AF10" s="17"/>
@@ -2210,8 +2207,8 @@
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="17"/>
@@ -2228,60 +2225,60 @@
       <c r="AP11" s="17"/>
     </row>
     <row r="12" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
+      <c r="B12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="57"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="58"/>
     </row>
     <row r="13" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="16">
         <v>1</v>
@@ -2336,11 +2333,11 @@
       <c r="B14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>33</v>
+      <c r="C14" s="49" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14" s="27">
         <f>E13+2</f>
@@ -2395,7 +2392,7 @@
       <c r="B15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="49" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="16">
@@ -2451,63 +2448,63 @@
     </row>
     <row r="16" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="57"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="58"/>
     </row>
     <row r="17" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>35</v>
+      <c r="C17" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="27">
         <f>E15</f>
@@ -2559,11 +2556,11 @@
       <c r="B18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>35</v>
+      <c r="C18" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="27">
         <f>E17</f>
@@ -2619,7 +2616,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="27">
         <f>F18</f>
@@ -2671,11 +2668,11 @@
       <c r="B20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>35</v>
+      <c r="C20" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="27">
         <f>F19</f>
@@ -2731,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="27">
         <f>F20</f>
@@ -2780,62 +2777,62 @@
     </row>
     <row r="22" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
-      <c r="B22" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
+      <c r="B22" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="15" t="str">
         <f t="shared" ref="G22" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="57"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="58"/>
     </row>
     <row r="23" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="27">
         <f>F19+2</f>
@@ -2884,13 +2881,13 @@
     </row>
     <row r="24" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="27">
         <f>E23</f>
@@ -2939,13 +2936,13 @@
     </row>
     <row r="25" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="27">
         <f>E23</f>
@@ -2993,14 +2990,14 @@
       <c r="AP25" s="17"/>
     </row>
     <row r="26" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
-        <v>40</v>
+      <c r="B26" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="27">
         <f>E25+4</f>
@@ -3062,12 +3059,12 @@
     <mergeCell ref="H16:AP16"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="V4:AB4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
   </mergeCells>
   <conditionalFormatting sqref="D18:D21 D7 D9:D11 D13 D15 D23:D26">
     <cfRule type="dataBar" priority="40">
